--- a/doc/log/张志毅小组第十周周报.xlsx
+++ b/doc/log/张志毅小组第十周周报.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\GitHub\DPanalysis\doc\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B31080-0ABC-4A69-A53F-C1A2A3B19EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B514C6A-F738-40B7-A7B4-CBC9A80352D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,19 +73,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>继续学习加入Attention机制的语义角色以及bert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>整体学习情况还算良好，学习积极性稍有提高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>对模型研究还不够透彻，基础知识的运用还不够熟练</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听从老师安排</t>
   </si>
   <si>
     <t>尝试理解《lightNLP》中的代码，搞清楚里面运行的具体原理
@@ -115,10 +108,22 @@
     <t>看了看LSTM;看了one-hot向量;特征值与特征向量</t>
   </si>
   <si>
-    <t>感觉直接从语义角色标注下手有点难，先从其他小组简单的看看。</t>
-  </si>
-  <si>
-    <t>第一还是现代；第二，开完会后在定</t>
+    <t>第一还是现代；第二深入理解模型</t>
+  </si>
+  <si>
+    <t>感觉直接从语义角色标注下手有点难，先从其他小组看相同的模型。</t>
+  </si>
+  <si>
+    <t>继续理解代码，接着查看并理解老师发
+到群里的《Syntax-Enhanced Self-Attention
+-Based Semantic Role Labeling》这篇文
+章，帮助组长实现self+attention这个代码的例子
+。尝试去实现一些简单的词性标注例子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">整理一下现有的语料，然后学习注意力机制和bert，尝试找一些代码跑跑学学 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -185,7 +190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -201,6 +206,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -486,7 +506,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -495,8 +515,8 @@
     <col min="2" max="2" width="16.33203125" customWidth="1"/>
     <col min="3" max="3" width="35.21875" customWidth="1"/>
     <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="39" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="5" max="5" width="28.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="38.77734375" customWidth="1"/>
     <col min="7" max="7" width="30.44140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
@@ -514,7 +534,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -540,35 +560,35 @@
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
+      <c r="F3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -576,19 +596,19 @@
     <row r="4" spans="1:8" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="E4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
